--- a/Datos/Requerimiento3/nuevas_palabras.xlsx
+++ b/Datos/Requerimiento3/nuevas_palabras.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2350</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2036</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
